--- a/biology/Zoologie/Godyris/Godyris.xlsx
+++ b/biology/Zoologie/Godyris/Godyris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Godyris regroupe des insectes lépidoptères diurnes de la famille des Nymphalidae et de la sous-famille des Danainae qui résident en Amérique du Sud.
 </t>
@@ -511,19 +523,21 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 avr. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 avr. 2011) :
 Godyris duillia
 Godyris nero
 Godyris zavaleta
 sous-espèce Godyris zavaleta matronalis
 sous-espèce Godyris zavaleta n. ssp. 1 ME-2007
 sous-espèce Godyris zavaleta n. ssp. 2 ME-2007
-Selon funet[2]:
+Selon funet:
 Godyris cleomella (Hewitson, 1874)
 Godyris crinippa (Hewitson, 1874)
-Godyris dircenna (C. &amp; R. Felder, [1865])
+Godyris dircenna (C. &amp; R. Felder, )
 Godyris duillia (Hewitson, 1854)
 Godyris kedema (Hewitson, 1855)
 Godyris lauta (Haensch, 1910)
